--- a/04_análisis_factorial/02_tablas_kmos.xlsx
+++ b/04_análisis_factorial/02_tablas_kmos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">componente</t>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">0102_01comp</t>
   </si>
   <si>
-    <t xml:space="preserve">0104_01comp</t>
+    <t xml:space="preserve">0103_01comp</t>
   </si>
   <si>
     <t xml:space="preserve">componente 1</t>
@@ -92,9 +92,6 @@
     <t xml:space="preserve">0220_05comp</t>
   </si>
   <si>
-    <t xml:space="preserve">0221_05comp</t>
-  </si>
-  <si>
     <t xml:space="preserve">componente 5</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
     <t xml:space="preserve">0234_08comp</t>
   </si>
   <si>
+    <t xml:space="preserve">0258_08comp</t>
+  </si>
+  <si>
     <t xml:space="preserve">componente 8</t>
   </si>
   <si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve">0343_10comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0344_10comp</t>
   </si>
   <si>
     <t xml:space="preserve">componente 10</t>
@@ -554,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0.653862143722562</v>
+        <v>0.546022698732037</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.518158602832993</v>
+        <v>0.558462434595152</v>
       </c>
     </row>
     <row r="4">
@@ -576,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.520570137921274</v>
+        <v>0.632918683368575</v>
       </c>
     </row>
     <row r="5">
@@ -587,7 +584,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>0.528633192443364</v>
+        <v>0.565251121195926</v>
       </c>
     </row>
     <row r="6">
@@ -598,7 +595,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>0.584948471908555</v>
+        <v>0.581318570374615</v>
       </c>
     </row>
     <row r="7">
@@ -609,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.630541282501987</v>
+        <v>0.625642228100016</v>
       </c>
     </row>
     <row r="8">
@@ -620,7 +617,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>0.727845363398568</v>
+        <v>0.720841502722904</v>
       </c>
     </row>
     <row r="9">
@@ -631,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>0.63183324364066</v>
+        <v>0.62677256719451</v>
       </c>
     </row>
     <row r="10">
@@ -642,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.866680123095445</v>
+        <v>0.873851911861553</v>
       </c>
     </row>
     <row r="11">
@@ -653,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>0.761601581705233</v>
+        <v>0.776963303226581</v>
       </c>
     </row>
     <row r="12">
@@ -664,7 +661,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7116689035279</v>
+        <v>0.730516378369668</v>
       </c>
     </row>
     <row r="13">
@@ -675,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>0.92714707931863</v>
+        <v>0.898221551024684</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +683,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>0.793496191670572</v>
+        <v>0.803215552103501</v>
       </c>
     </row>
     <row r="15">
@@ -697,7 +694,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="n">
-        <v>0.576304667201884</v>
+        <v>0.566497539271312</v>
       </c>
     </row>
     <row r="16">
@@ -708,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="n">
-        <v>0.453454446313712</v>
+        <v>0.414131101647941</v>
       </c>
     </row>
     <row r="17">
@@ -719,7 +716,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="n">
-        <v>0.648413470158087</v>
+        <v>0.648535708022507</v>
       </c>
     </row>
     <row r="18">
@@ -730,7 +727,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="n">
-        <v>0.61191307514483</v>
+        <v>0.598980863293785</v>
       </c>
     </row>
     <row r="19">
@@ -741,7 +738,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="n">
-        <v>0.57875397551336</v>
+        <v>0.564733153271169</v>
       </c>
     </row>
     <row r="20">
@@ -752,7 +749,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="n">
-        <v>0.591187238219743</v>
+        <v>0.580010944898599</v>
       </c>
     </row>
     <row r="21">
@@ -763,7 +760,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="n">
-        <v>0.526380297161929</v>
+        <v>0.621773823855411</v>
       </c>
     </row>
     <row r="22">
@@ -774,7 +771,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="n">
-        <v>0.64605324081956</v>
+        <v>0.486829653442149</v>
       </c>
     </row>
     <row r="23">
@@ -785,7 +782,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="n">
-        <v>0.533701433909283</v>
+        <v>0.546769270663493</v>
       </c>
     </row>
     <row r="24">
@@ -796,7 +793,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>0.563422957073939</v>
+        <v>0.540600609252968</v>
       </c>
     </row>
     <row r="25">
@@ -807,18 +804,18 @@
         <v>26</v>
       </c>
       <c r="C25" t="n">
-        <v>0.571590968165303</v>
+        <v>0.546766658484828</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="n">
-        <v>0.555062564735935</v>
+        <v>0.596705892260651</v>
       </c>
     </row>
     <row r="27">
@@ -829,7 +826,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="n">
-        <v>0.612756706746678</v>
+        <v>0.775655315046586</v>
       </c>
     </row>
     <row r="28">
@@ -840,7 +837,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="n">
-        <v>0.78914870186348</v>
+        <v>0.65453463917985</v>
       </c>
     </row>
     <row r="29">
@@ -851,7 +848,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>0.673932379724047</v>
+        <v>0.298036798487825</v>
       </c>
     </row>
     <row r="30">
@@ -862,18 +859,18 @@
         <v>31</v>
       </c>
       <c r="C30" t="n">
-        <v>0.293950459565384</v>
+        <v>0.646207975927606</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="n">
-        <v>0.661756547935515</v>
+        <v>0.711162444185382</v>
       </c>
     </row>
     <row r="32">
@@ -884,7 +881,7 @@
         <v>33</v>
       </c>
       <c r="C32" t="n">
-        <v>0.727967775644189</v>
+        <v>0.728593047816065</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +892,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="n">
-        <v>0.741946472922081</v>
+        <v>0.635466057016451</v>
       </c>
     </row>
     <row r="34">
@@ -906,18 +903,18 @@
         <v>35</v>
       </c>
       <c r="C34" t="n">
-        <v>0.661889683853222</v>
+        <v>0.684694667218269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="n">
-        <v>0.706011088796862</v>
+        <v>0.548710289211036</v>
       </c>
     </row>
     <row r="36">
@@ -928,7 +925,7 @@
         <v>37</v>
       </c>
       <c r="C36" t="n">
-        <v>0.599439875997765</v>
+        <v>0.733004988100017</v>
       </c>
     </row>
     <row r="37">
@@ -939,7 +936,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="n">
-        <v>0.647947703314925</v>
+        <v>0.495503213600588</v>
       </c>
     </row>
     <row r="38">
@@ -950,7 +947,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="n">
-        <v>0.66529402788672</v>
+        <v>0.457987686052848</v>
       </c>
     </row>
     <row r="39">
@@ -961,7 +958,7 @@
         <v>40</v>
       </c>
       <c r="C39" t="n">
-        <v>0.632009289228736</v>
+        <v>0.551097513510199</v>
       </c>
     </row>
     <row r="40">
@@ -972,7 +969,7 @@
         <v>41</v>
       </c>
       <c r="C40" t="n">
-        <v>0.600316029404496</v>
+        <v>0.608092096317449</v>
       </c>
     </row>
     <row r="41">
@@ -983,7 +980,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="n">
-        <v>0.61062610301391</v>
+        <v>0.664326298387762</v>
       </c>
     </row>
     <row r="42">
@@ -994,7 +991,7 @@
         <v>43</v>
       </c>
       <c r="C42" t="n">
-        <v>0.603342855050145</v>
+        <v>0.652197743664389</v>
       </c>
     </row>
     <row r="43">
@@ -1005,7 +1002,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="n">
-        <v>0.690484757240312</v>
+        <v>0.690826746309108</v>
       </c>
     </row>
     <row r="44">
@@ -1016,7 +1013,7 @@
         <v>45</v>
       </c>
       <c r="C44" t="n">
-        <v>0.627058333037396</v>
+        <v>0.645995697569941</v>
       </c>
     </row>
     <row r="45">
@@ -1027,7 +1024,7 @@
         <v>46</v>
       </c>
       <c r="C45" t="n">
-        <v>0.576005572668491</v>
+        <v>0.55807513365141</v>
       </c>
     </row>
     <row r="46">
@@ -1038,7 +1035,7 @@
         <v>47</v>
       </c>
       <c r="C46" t="n">
-        <v>0.733300640742327</v>
+        <v>0.713179669898009</v>
       </c>
     </row>
     <row r="47">
@@ -1049,7 +1046,7 @@
         <v>48</v>
       </c>
       <c r="C47" t="n">
-        <v>0.460488843071601</v>
+        <v>0.358727629684701</v>
       </c>
     </row>
     <row r="48">
@@ -1060,7 +1057,7 @@
         <v>49</v>
       </c>
       <c r="C48" t="n">
-        <v>0.594628608565195</v>
+        <v>0.585550469492041</v>
       </c>
     </row>
     <row r="49">
@@ -1071,18 +1068,18 @@
         <v>50</v>
       </c>
       <c r="C49" t="n">
-        <v>0.652347290722946</v>
+        <v>0.589380583074516</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="C50" t="n">
-        <v>0.605140300014101</v>
+        <v>0.815734682915669</v>
       </c>
     </row>
     <row r="51">
@@ -1093,7 +1090,7 @@
         <v>52</v>
       </c>
       <c r="C51" t="n">
-        <v>0.836346293426321</v>
+        <v>0.615771370923882</v>
       </c>
     </row>
     <row r="52">
@@ -1104,7 +1101,7 @@
         <v>53</v>
       </c>
       <c r="C52" t="n">
-        <v>0.703221477774637</v>
+        <v>0.79713142095398</v>
       </c>
     </row>
     <row r="53">
@@ -1115,7 +1112,7 @@
         <v>54</v>
       </c>
       <c r="C53" t="n">
-        <v>0.849366947751709</v>
+        <v>0.723387186265043</v>
       </c>
     </row>
     <row r="54">
@@ -1126,7 +1123,7 @@
         <v>55</v>
       </c>
       <c r="C54" t="n">
-        <v>0.729667287499804</v>
+        <v>0.719811083369833</v>
       </c>
     </row>
     <row r="55">
@@ -1137,18 +1134,18 @@
         <v>56</v>
       </c>
       <c r="C55" t="n">
-        <v>0.704661271122567</v>
+        <v>0.746386497763554</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56" t="n">
-        <v>0.761024041057312</v>
+        <v>0.630609389400993</v>
       </c>
     </row>
     <row r="57">
@@ -1159,7 +1156,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="n">
-        <v>0.632488485434829</v>
+        <v>0.599851492457993</v>
       </c>
     </row>
     <row r="58">
@@ -1170,7 +1167,7 @@
         <v>59</v>
       </c>
       <c r="C58" t="n">
-        <v>0.622005468019923</v>
+        <v>0.817305399380429</v>
       </c>
     </row>
     <row r="59">
@@ -1181,7 +1178,7 @@
         <v>60</v>
       </c>
       <c r="C59" t="n">
-        <v>0.820181918183746</v>
+        <v>0.411911851114357</v>
       </c>
     </row>
     <row r="60">
@@ -1192,7 +1189,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="n">
-        <v>0.422499610577875</v>
+        <v>0.593480004139155</v>
       </c>
     </row>
     <row r="61">
@@ -1203,18 +1200,7 @@
         <v>62</v>
       </c>
       <c r="C61" t="n">
-        <v>0.611022218387342</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>12</v>
-      </c>
-      <c r="B62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.65324253724374</v>
+        <v>0.635329592568399</v>
       </c>
     </row>
   </sheetData>
